--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>PDM</t>
   </si>
@@ -33,16 +33,28 @@
     <t>Represent %</t>
   </si>
   <si>
+    <t>PDM SANTANDER</t>
+  </si>
+  <si>
     <t>PDM TUNJUELITO</t>
   </si>
   <si>
     <t>Promedio</t>
   </si>
   <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
     <t>MANZANA</t>
   </si>
   <si>
+    <t>PAPA</t>
+  </si>
+  <si>
     <t>POLLO</t>
+  </si>
+  <si>
+    <t>YUCA</t>
   </si>
   <si>
     <t>Fecha de aplicación (Fecha, hora y minuto)</t>
@@ -445,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,24 +489,41 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-5800</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>15000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>12400</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>-2600</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>-0.1733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15000</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20800</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD2"/>
+  <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,26 +543,59 @@
     <col min="2" max="16384" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>45300</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>3900</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>11750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>45331</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>45391</v>
+      </c>
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -556,30 +618,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>11100</v>
@@ -596,10 +658,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>3900</v>
@@ -616,7 +678,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6">
         <v>15000</v>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -7,15 +7,97 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
+    <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
+    <sheet name="KENNEDY" sheetId="3" r:id="rId3"/>
+    <sheet name="SANTAFÉ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>PDM</t>
+  </si>
+  <si>
+    <t>$PM</t>
+  </si>
+  <si>
+    <t>$Tienda</t>
+  </si>
+  <si>
+    <t>Diferencia (Tienda - Plaza)</t>
+  </si>
+  <si>
+    <t>Represent %</t>
+  </si>
+  <si>
+    <t>PDM KENNEDY</t>
+  </si>
+  <si>
+    <t>PDM LA CONCORDIA</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>CHATAS</t>
+  </si>
+  <si>
+    <t>COSTILLA</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>POLLO</t>
+  </si>
+  <si>
+    <t>Fecha de aplicación (Fecha, hora y minuto)</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Tiendas</t>
+  </si>
+  <si>
+    <t>Dif. Precio ($)</t>
+  </si>
+  <si>
+    <t>Dif. Porc. (%)</t>
+  </si>
+  <si>
+    <t>CÁRNICOS</t>
+  </si>
+  <si>
+    <t>TUBERCULOS</t>
+  </si>
+  <si>
+    <t>Suma total</t>
+  </si>
+  <si>
+    <t>PDM SANTAFÉ</t>
+  </si>
+  <si>
+    <t>CARNICOS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +105,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +136,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +461,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-16700</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.8978494623655914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13900</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1510791366906475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>45669</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-9000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E3" s="1">
+        <v>300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10600</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13900</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13900</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
     <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
     <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM LA CONCORDIA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>PDM</t>
   </si>
@@ -34,6 +35,9 @@
     <t>Represent %</t>
   </si>
   <si>
+    <t>PDM LA CONCORDIA</t>
+  </si>
+  <si>
     <t>PDM QUIRIGUA</t>
   </si>
   <si>
@@ -52,15 +56,24 @@
     <t>CADERA</t>
   </si>
   <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
     <t>CANAL</t>
   </si>
   <si>
+    <t>CHOCOLATE</t>
+  </si>
+  <si>
     <t>COSTILLA</t>
   </si>
   <si>
     <t>FALDA</t>
   </si>
   <si>
+    <t>HARINA</t>
+  </si>
+  <si>
     <t>HUEVOS</t>
   </si>
   <si>
@@ -70,6 +83,9 @@
     <t>PAPAYA</t>
   </si>
   <si>
+    <t>PASTA</t>
+  </si>
+  <si>
     <t>QUESO</t>
   </si>
   <si>
@@ -95,6 +111,9 @@
   </si>
   <si>
     <t>FRUTAS</t>
+  </si>
+  <si>
+    <t>OTROS</t>
   </si>
 </sst>
 </file>
@@ -470,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
+        <v>63000</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>21000</v>
-      </c>
       <c r="D2" s="1">
-        <v>-21000</v>
+        <v>63000</v>
       </c>
       <c r="E2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -519,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="D3" s="1">
-        <v>108000</v>
+        <v>-21000</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -536,23 +555,40 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
+        <v>108000</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>8000</v>
-      </c>
       <c r="D4" s="1">
-        <v>-8000</v>
+        <v>108000</v>
       </c>
       <c r="E4" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>29000</v>
       </c>
     </row>
@@ -578,61 +614,85 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>46011</v>
       </c>
-      <c r="G2" s="1">
+      <c r="D2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1">
         <v>12000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>5000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="N2" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>46012</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>46016</v>
       </c>
@@ -642,13 +702,13 @@
       <c r="C4" s="1">
         <v>23000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>34000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -672,21 +732,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -694,10 +754,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -705,10 +765,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>4000</v>
@@ -716,7 +776,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>21000</v>
@@ -745,21 +805,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -767,10 +827,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>9000</v>
@@ -778,13 +838,97 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>63000</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -12,29 +12,37 @@
     <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
     <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
     <sheet name="PDM LA CONCORDIA" sheetId="5" r:id="rId5"/>
+    <sheet name="PDM 20 DE JULIO" sheetId="6" r:id="rId6"/>
+    <sheet name="PDM KENNEDY" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>PDM</t>
   </si>
   <si>
+    <t>$PM</t>
+  </si>
+  <si>
     <t>$Tienda</t>
   </si>
   <si>
-    <t>$PM</t>
-  </si>
-  <si>
     <t>Diferencia (Tienda - Plaza)</t>
   </si>
   <si>
     <t>Represent %</t>
   </si>
   <si>
+    <t>PDM 20 DE JULIO</t>
+  </si>
+  <si>
+    <t>PDM KENNEDY</t>
+  </si>
+  <si>
     <t>PDM LA CONCORDIA</t>
   </si>
   <si>
@@ -50,6 +58,9 @@
     <t>Promedio</t>
   </si>
   <si>
+    <t>ACEITE</t>
+  </si>
+  <si>
     <t>BANANO</t>
   </si>
   <si>
@@ -80,6 +91,9 @@
     <t>LECHE</t>
   </si>
   <si>
+    <t>MANTEQUILLA</t>
+  </si>
+  <si>
     <t>PAPAYA</t>
   </si>
   <si>
@@ -89,7 +103,7 @@
     <t>QUESO</t>
   </si>
   <si>
-    <t>Fecha de aplicación</t>
+    <t>FECHA_DIA</t>
   </si>
   <si>
     <t>Grupo</t>
@@ -98,6 +112,15 @@
     <t>Productos</t>
   </si>
   <si>
+    <t>Tiendas</t>
+  </si>
+  <si>
+    <t>Dif. Precio ($)</t>
+  </si>
+  <si>
+    <t>Dif. Porc. (%)</t>
+  </si>
+  <si>
     <t>CÁRNICOS</t>
   </si>
   <si>
@@ -107,13 +130,13 @@
     <t>Suma total</t>
   </si>
   <si>
-    <t>Tiendas</t>
-  </si>
-  <si>
     <t>FRUTAS</t>
   </si>
   <si>
     <t>OTROS</t>
+  </si>
+  <si>
+    <t>GRASAS</t>
   </si>
 </sst>
 </file>
@@ -489,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>17399</v>
       </c>
       <c r="D2" s="1">
-        <v>63000</v>
+        <v>17399</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -538,13 +561,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="C3" s="1">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>-21000</v>
+        <v>-11000</v>
       </c>
       <c r="E3" s="2">
         <v>-1</v>
@@ -555,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="D4" s="1">
-        <v>108000</v>
+        <v>63000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -572,13 +595,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="C5" s="1">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>-8000</v>
+        <v>-21000</v>
       </c>
       <c r="E5" s="2">
         <v>-1</v>
@@ -588,8 +611,42 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6" s="1">
-        <v>29000</v>
+        <v>108000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>108000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -614,101 +671,129 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
+        <v>46003</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4">
         <v>46011</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>32000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>20000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="1">
         <v>2000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="1">
         <v>12000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L3" s="1">
         <v>5000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O3" s="1">
         <v>9000</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P3" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4">
+    <row r="4" spans="1:16">
+      <c r="A4" s="4">
         <v>46012</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4">
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
         <v>46016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>12000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>23000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>30000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="1">
         <v>34000</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N5" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
+        <v>46018</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8399</v>
+      </c>
+      <c r="M6" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -730,53 +815,89 @@
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-12000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-5000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-4000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>21000</v>
@@ -803,42 +924,69 @@
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -865,70 +1013,273 @@
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8399</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8399</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-9000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>63000</v>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -10,16 +10,17 @@
     <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
     <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
-    <sheet name="PDM LA CONCORDIA" sheetId="4" r:id="rId4"/>
-    <sheet name="PDM 20 DE JULIO" sheetId="5" r:id="rId5"/>
-    <sheet name="PDM KENNEDY" sheetId="6" r:id="rId6"/>
+    <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM LA CONCORDIA" sheetId="5" r:id="rId5"/>
+    <sheet name="PDM 20 DE JULIO" sheetId="6" r:id="rId6"/>
+    <sheet name="PDM KENNEDY" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>PDM</t>
   </si>
@@ -48,6 +49,9 @@
     <t>PDM QUIRIGUA</t>
   </si>
   <si>
+    <t>PDM SAMPER MENDOZA</t>
+  </si>
+  <si>
     <t>PDM TRINIDAD GALAN</t>
   </si>
   <si>
@@ -57,15 +61,27 @@
     <t>ACEITE</t>
   </si>
   <si>
+    <t>BANANO</t>
+  </si>
+  <si>
+    <t>CADERA</t>
+  </si>
+  <si>
     <t>CAFÉ</t>
   </si>
   <si>
+    <t>CANAL</t>
+  </si>
+  <si>
     <t>CHOCOLATE</t>
   </si>
   <si>
     <t>COSTILLA</t>
   </si>
   <si>
+    <t>FALDA</t>
+  </si>
+  <si>
     <t>HARINA</t>
   </si>
   <si>
@@ -78,6 +94,9 @@
     <t>MANTEQUILLA</t>
   </si>
   <si>
+    <t>PAPAYA</t>
+  </si>
+  <si>
     <t>PASTA</t>
   </si>
   <si>
@@ -109,6 +128,9 @@
   </si>
   <si>
     <t>Suma total</t>
+  </si>
+  <si>
+    <t>FRUTAS</t>
   </si>
   <si>
     <t>OTROS</t>
@@ -490,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,23 +612,40 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>108000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>108000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
         <v>8000</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>-8000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>40000</v>
       </c>
     </row>
@@ -617,7 +656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -632,94 +671,129 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>46003</v>
       </c>
       <c r="B2" s="1">
         <v>9000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>46011</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>32000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3" s="1">
         <v>20000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>2000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>12000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>5000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="O3" s="1">
         <v>9000</v>
       </c>
-      <c r="K3" s="1">
+      <c r="P3" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>46012</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
+        <v>46016</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>34000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4">
         <v>46018</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E6" s="1">
         <v>8399</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M6" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -743,30 +817,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -783,10 +857,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -803,10 +877,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>4000</v>
@@ -823,7 +897,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>21000</v>
@@ -838,6 +912,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -852,30 +1015,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -892,10 +1055,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -912,10 +1075,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -932,10 +1095,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -952,7 +1115,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -966,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -981,30 +1144,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1021,7 +1184,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -1035,7 +1198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1050,30 +1213,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>9000</v>
@@ -1090,10 +1253,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -1110,7 +1273,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6">
         <v>11000</v>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -9,18 +9,15 @@
   <sheets>
     <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
-    <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
-    <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
-    <sheet name="PDM LA CONCORDIA" sheetId="5" r:id="rId5"/>
-    <sheet name="PDM 20 DE JULIO" sheetId="6" r:id="rId6"/>
-    <sheet name="PDM KENNEDY" sheetId="7" r:id="rId7"/>
+    <sheet name="PDM SANTANDER" sheetId="3" r:id="rId3"/>
+    <sheet name="PDM CARLOS RESTREPO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>PDM</t>
   </si>
@@ -37,70 +34,34 @@
     <t>Represent %</t>
   </si>
   <si>
-    <t>PDM 20 DE JULIO</t>
-  </si>
-  <si>
-    <t>PDM KENNEDY</t>
-  </si>
-  <si>
-    <t>PDM LA CONCORDIA</t>
-  </si>
-  <si>
-    <t>PDM QUIRIGUA</t>
-  </si>
-  <si>
-    <t>PDM SAMPER MENDOZA</t>
-  </si>
-  <si>
-    <t>PDM TRINIDAD GALAN</t>
+    <t>PDM CARLOS RESTREPO</t>
+  </si>
+  <si>
+    <t>PDM SANTANDER</t>
   </si>
   <si>
     <t>Promedio</t>
   </si>
   <si>
-    <t>ACEITE</t>
-  </si>
-  <si>
-    <t>BANANO</t>
-  </si>
-  <si>
-    <t>CADERA</t>
-  </si>
-  <si>
-    <t>CAFÉ</t>
-  </si>
-  <si>
-    <t>CANAL</t>
-  </si>
-  <si>
-    <t>CHOCOLATE</t>
-  </si>
-  <si>
-    <t>COSTILLA</t>
-  </si>
-  <si>
-    <t>FALDA</t>
-  </si>
-  <si>
-    <t>HARINA</t>
-  </si>
-  <si>
-    <t>HUEVOS</t>
-  </si>
-  <si>
-    <t>LECHE</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA</t>
-  </si>
-  <si>
-    <t>PAPAYA</t>
-  </si>
-  <si>
-    <t>PASTA</t>
-  </si>
-  <si>
-    <t>QUESO</t>
+    <t>CEBOLLA LARGA</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>LENTEJAS</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>TOMATE</t>
+  </si>
+  <si>
+    <t>YUCA</t>
+  </si>
+  <si>
+    <t>ZANAHORIA</t>
   </si>
   <si>
     <t>FECHA_DIA</t>
@@ -121,22 +82,19 @@
     <t>Dif. Porc. (%)</t>
   </si>
   <si>
-    <t>CÁRNICOS</t>
-  </si>
-  <si>
-    <t>LÁCTEOS</t>
+    <t>PLATANO</t>
+  </si>
+  <si>
+    <t>TUBERCULOS</t>
+  </si>
+  <si>
+    <t>VERDURAS</t>
   </si>
   <si>
     <t>Suma total</t>
   </si>
   <si>
-    <t>FRUTAS</t>
-  </si>
-  <si>
-    <t>OTROS</t>
-  </si>
-  <si>
-    <t>GRASAS</t>
+    <t>GRANOS</t>
   </si>
 </sst>
 </file>
@@ -512,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="C2" s="1">
-        <v>17399</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>17399</v>
+        <v>-15000</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -573,80 +531,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>63000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>63000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-21000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>108000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>108000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-8000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>40000</v>
+        <v>26000</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -671,130 +561,61 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>46003</v>
+        <v>45980</v>
       </c>
       <c r="B2" s="1">
-        <v>9000</v>
+        <v>2000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2500</v>
       </c>
       <c r="E2" s="1">
+        <v>800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
-        <v>46011</v>
-      </c>
-      <c r="E3" s="1">
-        <v>32000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>12000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4">
-        <v>46012</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4">
-        <v>46016</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>34000</v>
-      </c>
-      <c r="N5" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4">
-        <v>46018</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8399</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9000</v>
+        <v>46022</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +625,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,39 +638,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>-12000</v>
+        <v>-2500</v>
       </c>
       <c r="F2" s="2">
         <v>-1</v>
@@ -857,19 +678,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>-5000</v>
+        <v>-800</v>
       </c>
       <c r="F3" s="2">
         <v>-1</v>
@@ -877,32 +698,92 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>-4000</v>
+        <v>-2500</v>
       </c>
       <c r="F4" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6">
-        <v>21000</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -912,224 +793,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>21000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>32000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>63000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1144,141 +807,52 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="1">
-        <v>8399</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>8399</v>
+        <v>-15000</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="D3" s="6">
-        <v>8399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-9000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6">
-        <v>11000</v>
-      </c>
-      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -9,15 +9,17 @@
   <sheets>
     <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
-    <sheet name="PDM SANTANDER" sheetId="3" r:id="rId3"/>
-    <sheet name="PDM CARLOS RESTREPO" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM CARLOS RESTREPO" sheetId="3" r:id="rId3"/>
+    <sheet name="PDM SANTANDER" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM TRINIDAD GALAN" sheetId="5" r:id="rId5"/>
+    <sheet name="PDM 20 DE JULIO" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>PDM</t>
   </si>
@@ -34,34 +36,40 @@
     <t>Represent %</t>
   </si>
   <si>
+    <t>PDM 20 DE JULIO</t>
+  </si>
+  <si>
     <t>PDM CARLOS RESTREPO</t>
   </si>
   <si>
     <t>PDM SANTANDER</t>
   </si>
   <si>
+    <t>PDM TRINIDAD GALAN</t>
+  </si>
+  <si>
     <t>Promedio</t>
   </si>
   <si>
+    <t>CADERA</t>
+  </si>
+  <si>
     <t>CEBOLLA LARGA</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>LENTEJAS</t>
-  </si>
-  <si>
-    <t>PAPA</t>
-  </si>
-  <si>
-    <t>TOMATE</t>
-  </si>
-  <si>
-    <t>YUCA</t>
-  </si>
-  <si>
-    <t>ZANAHORIA</t>
+    <t>CHATAS</t>
+  </si>
+  <si>
+    <t>ESPINACA</t>
+  </si>
+  <si>
+    <t>HUEVOS</t>
+  </si>
+  <si>
+    <t>LOMO</t>
+  </si>
+  <si>
+    <t>MAÍZ</t>
   </si>
   <si>
     <t>FECHA_DIA</t>
@@ -82,19 +90,13 @@
     <t>Dif. Porc. (%)</t>
   </si>
   <si>
-    <t>PLATANO</t>
-  </si>
-  <si>
-    <t>TUBERCULOS</t>
+    <t>CÁRNICOS</t>
+  </si>
+  <si>
+    <t>Suma total</t>
   </si>
   <si>
     <t>VERDURAS</t>
-  </si>
-  <si>
-    <t>Suma total</t>
-  </si>
-  <si>
-    <t>GRANOS</t>
   </si>
 </sst>
 </file>
@@ -470,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>-15000</v>
+        <v>-9000</v>
       </c>
       <c r="E2" s="2">
         <v>-1</v>
@@ -519,24 +521,58 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="D3" s="1">
-        <v>-11000</v>
+        <v>6900</v>
       </c>
       <c r="E3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>26000</v>
+      <c r="B4" s="1">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15410</v>
+      </c>
+      <c r="E4" s="2">
+        <v>171.2222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>29000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30090</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -563,59 +599,91 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>45980</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>800</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2000</v>
+        <v>46015</v>
+      </c>
+      <c r="D2" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4">
+        <v>46017</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>46019</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
         <v>46022</v>
       </c>
-      <c r="D3" s="1">
-        <v>15000</v>
+      <c r="G5" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>46023</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>46029</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -638,153 +706,73 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E2" s="1">
-        <v>-2500</v>
+        <v>9000</v>
       </c>
       <c r="F2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>-800</v>
+        <v>-12000</v>
       </c>
       <c r="F3" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-2500</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-1200</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6">
-        <v>11000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
+      <c r="C4" s="6">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -793,6 +781,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-90</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-9000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -807,39 +973,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>-15000</v>
+        <v>-9000</v>
       </c>
       <c r="F2" s="2">
         <v>-1</v>
@@ -850,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="6">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -7,15 +7,462 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
+    <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
+    <sheet name="PMD TRINIDAD GALÁN" sheetId="3" r:id="rId3"/>
+    <sheet name="PMD SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
+    <sheet name="PMD 7 DE AGOSTO" sheetId="5" r:id="rId5"/>
+    <sheet name="PMD LA PERSEVERANCIA" sheetId="6" r:id="rId6"/>
+    <sheet name="PMD CHAPINERO" sheetId="7" r:id="rId7"/>
+    <sheet name="PMD FONTIBÓN" sheetId="8" r:id="rId8"/>
+    <sheet name="PMD QUIRIGUA" sheetId="9" r:id="rId9"/>
+    <sheet name="PMD 20 DE JULIO" sheetId="10" r:id="rId10"/>
+    <sheet name="PMD USAQUÉN" sheetId="11" r:id="rId11"/>
+    <sheet name="PMD KENNEDY" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
+  <si>
+    <t>PDM</t>
+  </si>
+  <si>
+    <t>$PM</t>
+  </si>
+  <si>
+    <t>$Tienda</t>
+  </si>
+  <si>
+    <t>Diferencia (Tienda - Plaza)</t>
+  </si>
+  <si>
+    <t>Represent %</t>
+  </si>
+  <si>
+    <t>PMD 20 DE JULIO</t>
+  </si>
+  <si>
+    <t>PMD 7 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>PMD CHAPINERO</t>
+  </si>
+  <si>
+    <t>PMD FONTIBÓN</t>
+  </si>
+  <si>
+    <t>PMD KENNEDY</t>
+  </si>
+  <si>
+    <t>PMD LA PERSEVERANCIA</t>
+  </si>
+  <si>
+    <t>PMD QUIRIGUA</t>
+  </si>
+  <si>
+    <t>PMD SAMPER MENDOZA</t>
+  </si>
+  <si>
+    <t>PMD TRINIDAD GALÁN</t>
+  </si>
+  <si>
+    <t>PMD USAQUÉN</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>ACEITE</t>
+  </si>
+  <si>
+    <t>ACEITE GIRASOL</t>
+  </si>
+  <si>
+    <t>ACEITE OLIVA</t>
+  </si>
+  <si>
+    <t>AJONJOLI</t>
+  </si>
+  <si>
+    <t>ALAS</t>
+  </si>
+  <si>
+    <t>ALVEJA</t>
+  </si>
+  <si>
+    <t>AREQUIPE</t>
+  </si>
+  <si>
+    <t>ARRACACHA</t>
+  </si>
+  <si>
+    <t>ARROZ</t>
+  </si>
+  <si>
+    <t>AVENA</t>
+  </si>
+  <si>
+    <t>AVENA EN GRANO</t>
+  </si>
+  <si>
+    <t>AZUCAR</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BAGRE</t>
+  </si>
+  <si>
+    <t>BANANO</t>
+  </si>
+  <si>
+    <t>BATATA</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>CAMARON</t>
+  </si>
+  <si>
+    <t>CAMPESINO</t>
+  </si>
+  <si>
+    <t>CARNE MOLIDA</t>
+  </si>
+  <si>
+    <t>CEBADA</t>
+  </si>
+  <si>
+    <t>CERDO</t>
+  </si>
+  <si>
+    <t>CHIA</t>
+  </si>
+  <si>
+    <t>CHOCOLATE</t>
+  </si>
+  <si>
+    <t>CHUGUAS</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>CODORNIZ</t>
+  </si>
+  <si>
+    <t>COLICERO</t>
+  </si>
+  <si>
+    <t>CUBIOS</t>
+  </si>
+  <si>
+    <t>CURUBA</t>
+  </si>
+  <si>
+    <t>ESPINACA</t>
+  </si>
+  <si>
+    <t>FABA</t>
+  </si>
+  <si>
+    <t>FRESA</t>
+  </si>
+  <si>
+    <t>FRIJOL</t>
+  </si>
+  <si>
+    <t>GARBANZO</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>GRANADILLA</t>
+  </si>
+  <si>
+    <t>GUANÁBANA</t>
+  </si>
+  <si>
+    <t>GUINEO</t>
+  </si>
+  <si>
+    <t>HABICHUELA</t>
+  </si>
+  <si>
+    <t>HARTON</t>
+  </si>
+  <si>
+    <t>HUEVOS</t>
+  </si>
+  <si>
+    <t>IBIAS</t>
+  </si>
+  <si>
+    <t>KUMIS</t>
+  </si>
+  <si>
+    <t>LECHE</t>
+  </si>
+  <si>
+    <t>LECHUGA</t>
+  </si>
+  <si>
+    <t>LENTEJAS</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>LINAZA</t>
+  </si>
+  <si>
+    <t>LULO</t>
+  </si>
+  <si>
+    <t>MADURO</t>
+  </si>
+  <si>
+    <t>MAIZ</t>
+  </si>
+  <si>
+    <t>MANGO</t>
+  </si>
+  <si>
+    <t>MANJAR BLANCO</t>
+  </si>
+  <si>
+    <t>MANTECA</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA</t>
+  </si>
+  <si>
+    <t>MANZANA</t>
+  </si>
+  <si>
+    <t>MARACUYA</t>
+  </si>
+  <si>
+    <t>MARGARINA</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>MENUDENCIAS</t>
+  </si>
+  <si>
+    <t>MOJARRA</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>MUDO</t>
+  </si>
+  <si>
+    <t>NARANJA</t>
+  </si>
+  <si>
+    <t>NICURO</t>
+  </si>
+  <si>
+    <t>PANELA</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>PAPA CRIOLLA</t>
+  </si>
+  <si>
+    <t>PAPA R12</t>
+  </si>
+  <si>
+    <t>PAPAYA</t>
+  </si>
+  <si>
+    <t>PECHUGA</t>
+  </si>
+  <si>
+    <t>PERA</t>
+  </si>
+  <si>
+    <t>PERNIL</t>
+  </si>
+  <si>
+    <t>PIMENTON</t>
+  </si>
+  <si>
+    <t>PITAHAYA</t>
+  </si>
+  <si>
+    <t>PIÑA</t>
+  </si>
+  <si>
+    <t>POLLO ENTERO</t>
+  </si>
+  <si>
+    <t>QUESILLO</t>
+  </si>
+  <si>
+    <t>QUESO</t>
+  </si>
+  <si>
+    <t>QUESO CREMA</t>
+  </si>
+  <si>
+    <t>QUINUA</t>
+  </si>
+  <si>
+    <t>REPOLLO</t>
+  </si>
+  <si>
+    <t>REQUESON</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>SANDIA</t>
+  </si>
+  <si>
+    <t>SOJA</t>
+  </si>
+  <si>
+    <t>SUERO</t>
+  </si>
+  <si>
+    <t>TOMATE</t>
+  </si>
+  <si>
+    <t>TOMATE ARBOL</t>
+  </si>
+  <si>
+    <t>TRIGO</t>
+  </si>
+  <si>
+    <t>TRUCHA</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>YOGURTH</t>
+  </si>
+  <si>
+    <t>YUCA</t>
+  </si>
+  <si>
+    <t>ZANAHORIA</t>
+  </si>
+  <si>
+    <t>ÑAME</t>
+  </si>
+  <si>
+    <t>FECHA_DIA</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>PDM PMD TRINIDAD GALÁN</t>
+  </si>
+  <si>
+    <t>Tiendas</t>
+  </si>
+  <si>
+    <t>Dif. Precio ($)</t>
+  </si>
+  <si>
+    <t>Dif. Porc. (%)</t>
+  </si>
+  <si>
+    <t>FRUTAS</t>
+  </si>
+  <si>
+    <t>OTROS</t>
+  </si>
+  <si>
+    <t>Suma total</t>
+  </si>
+  <si>
+    <t>PDM PMD SAMPER MENDOZA</t>
+  </si>
+  <si>
+    <t>GRANOS</t>
+  </si>
+  <si>
+    <t>PDM PMD 7 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>CARNES</t>
+  </si>
+  <si>
+    <t>LACTEOS</t>
+  </si>
+  <si>
+    <t>VERDURAS</t>
+  </si>
+  <si>
+    <t>PDM PMD LA PERSEVERANCIA</t>
+  </si>
+  <si>
+    <t>PDM PMD CHAPINERO</t>
+  </si>
+  <si>
+    <t>GRASAS</t>
+  </si>
+  <si>
+    <t>PDM PMD FONTIBÓN</t>
+  </si>
+  <si>
+    <t>PLATANO</t>
+  </si>
+  <si>
+    <t>TUBERCULOS</t>
+  </si>
+  <si>
+    <t>PDM PMD QUIRIGUA</t>
+  </si>
+  <si>
+    <t>PDM PMD 20 DE JULIO</t>
+  </si>
+  <si>
+    <t>POLLO</t>
+  </si>
+  <si>
+    <t>PDM PMD USAQUÉN</t>
+  </si>
+  <si>
+    <t>PDM PMD KENNEDY</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +470,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +501,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +826,2158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>38500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>83300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-83300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>72000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>61500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-10500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.1458333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-27000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18900</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.83495145631068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51700</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12700</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.3256410256410256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25700</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14800</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-10900</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.424124513618677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-28000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>366000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-3200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1700</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4200</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100">
+      <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100">
+      <c r="A2" s="4">
+        <v>45992</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>3800</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100">
+      <c r="A3" s="4">
+        <v>45993</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9500</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100">
+      <c r="A4" s="4">
+        <v>45994</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>3200</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100">
+      <c r="A5" s="4">
+        <v>45995</v>
+      </c>
+      <c r="S5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100">
+      <c r="A6" s="4">
+        <v>45996</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2200</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>5500</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100">
+      <c r="A7" s="4">
+        <v>45997</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100">
+      <c r="A8" s="4">
+        <v>45998</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100">
+      <c r="A9" s="4">
+        <v>45999</v>
+      </c>
+      <c r="X9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100">
+      <c r="A10" s="4">
+        <v>46000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8500</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>4500</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100">
+      <c r="A11" s="4">
+        <v>46001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3500</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>2800</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100">
+      <c r="A12" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100">
+      <c r="A13" s="4">
+        <v>46003</v>
+      </c>
+      <c r="P13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>3200</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100">
+      <c r="A14" s="4">
+        <v>46004</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100">
+      <c r="A15" s="4">
+        <v>46005</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100">
+      <c r="A16" s="4">
+        <v>46006</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="U16" s="1">
+        <v>18000</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>9000</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:100">
+      <c r="A17" s="4">
+        <v>46007</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>4200</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>7000</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:100">
+      <c r="A18" s="4">
+        <v>46008</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>3800</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:100">
+      <c r="A19" s="4">
+        <v>46009</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:100">
+      <c r="A20" s="4">
+        <v>46010</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:100">
+      <c r="A21" s="4">
+        <v>46011</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3500</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>9500</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:100">
+      <c r="A22" s="4">
+        <v>46012</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15500</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>3500</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:100">
+      <c r="A23" s="4">
+        <v>46013</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>12000</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>3800</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:100">
+      <c r="A24" s="4">
+        <v>46014</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6000</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:100">
+      <c r="A25" s="4">
+        <v>46015</v>
+      </c>
+      <c r="E25" s="1">
+        <v>28000</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>2200</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>2800</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>7000</v>
+      </c>
+      <c r="CL25" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:100">
+      <c r="A26" s="4">
+        <v>46016</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BW26" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:100">
+      <c r="A27" s="4">
+        <v>46017</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="CC27" s="1">
+        <v>11000</v>
+      </c>
+      <c r="CP27" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:100">
+      <c r="A28" s="4">
+        <v>46018</v>
+      </c>
+      <c r="O28" s="1">
+        <v>13500</v>
+      </c>
+      <c r="V28" s="1">
+        <v>13000</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:100">
+      <c r="A29" s="4">
+        <v>46019</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>7500</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:100">
+      <c r="A30" s="4">
+        <v>46020</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>15000</v>
+      </c>
+      <c r="CO30" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:100">
+      <c r="A31" s="4">
+        <v>46021</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:100">
+      <c r="A32" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11000</v>
+      </c>
+      <c r="T32" s="1">
+        <v>25000</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>2800</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>1700</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>7500</v>
+      </c>
+      <c r="CR32" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3800</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-16000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20700</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-13000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-9500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-18000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-12000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2800</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="6">
+        <v>58300</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4300</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-3200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-6000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-4500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10500</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>PDM</t>
   </si>
@@ -75,28 +75,19 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>ACEITE</t>
   </si>
   <si>
-    <t>ACEITE GIRASOL</t>
-  </si>
-  <si>
-    <t>ACEITE OLIVA</t>
-  </si>
-  <si>
-    <t>AJONJOLI</t>
-  </si>
-  <si>
-    <t>ALAS</t>
-  </si>
-  <si>
-    <t>ALVEJA</t>
-  </si>
-  <si>
-    <t>AREQUIPE</t>
+    <t>ACELGA</t>
+  </si>
+  <si>
+    <t>AGUACATE</t>
+  </si>
+  <si>
+    <t>AGUACATE HASS</t>
+  </si>
+  <si>
+    <t>APIO</t>
   </si>
   <si>
     <t>ARRACACHA</t>
@@ -108,70 +99,55 @@
     <t>AVENA</t>
   </si>
   <si>
-    <t>AVENA EN GRANO</t>
-  </si>
-  <si>
     <t>AZUCAR</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>BAGRE</t>
-  </si>
-  <si>
     <t>BANANO</t>
   </si>
   <si>
-    <t>BATATA</t>
+    <t>BRÓCOLI</t>
+  </si>
+  <si>
+    <t>CADERA</t>
   </si>
   <si>
     <t>CAFÉ</t>
   </si>
   <si>
-    <t>CAMARON</t>
-  </si>
-  <si>
-    <t>CAMPESINO</t>
-  </si>
-  <si>
-    <t>CARNE MOLIDA</t>
-  </si>
-  <si>
-    <t>CEBADA</t>
-  </si>
-  <si>
-    <t>CERDO</t>
-  </si>
-  <si>
-    <t>CHIA</t>
+    <t>CALABACÍN/ZUCHINI</t>
+  </si>
+  <si>
+    <t>CANAL</t>
+  </si>
+  <si>
+    <t>CEBOLLA CABEZONA</t>
+  </si>
+  <si>
+    <t>CEBOLLA LARGA</t>
+  </si>
+  <si>
+    <t>CHATAS</t>
   </si>
   <si>
     <t>CHOCOLATE</t>
   </si>
   <si>
-    <t>CHUGUAS</t>
-  </si>
-  <si>
-    <t>COCO</t>
-  </si>
-  <si>
-    <t>CODORNIZ</t>
-  </si>
-  <si>
-    <t>COLICERO</t>
-  </si>
-  <si>
-    <t>CUBIOS</t>
-  </si>
-  <si>
-    <t>CURUBA</t>
+    <t>CILANTRO</t>
+  </si>
+  <si>
+    <t>COSTILLA</t>
+  </si>
+  <si>
+    <t>CUAJADA</t>
+  </si>
+  <si>
+    <t>DURAZNO</t>
   </si>
   <si>
     <t>ESPINACA</t>
   </si>
   <si>
-    <t>FABA</t>
+    <t>FALDA</t>
   </si>
   <si>
     <t>FRESA</t>
@@ -183,33 +159,27 @@
     <t>GARBANZO</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
     <t>GRANADILLA</t>
   </si>
   <si>
     <t>GUANÁBANA</t>
   </si>
   <si>
-    <t>GUINEO</t>
+    <t>GUAYABA</t>
   </si>
   <si>
     <t>HABICHUELA</t>
   </si>
   <si>
-    <t>HARTON</t>
+    <t>HARINA</t>
+  </si>
+  <si>
+    <t>HIERBAS</t>
   </si>
   <si>
     <t>HUEVOS</t>
   </si>
   <si>
-    <t>IBIAS</t>
-  </si>
-  <si>
-    <t>KUMIS</t>
-  </si>
-  <si>
     <t>LECHE</t>
   </si>
   <si>
@@ -219,144 +189,81 @@
     <t>LENTEJAS</t>
   </si>
   <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>LINAZA</t>
-  </si>
-  <si>
-    <t>LULO</t>
-  </si>
-  <si>
-    <t>MADURO</t>
-  </si>
-  <si>
-    <t>MAIZ</t>
+    <t>LIMÓN</t>
+  </si>
+  <si>
+    <t>LOMO</t>
+  </si>
+  <si>
+    <t>MANDARINA</t>
   </si>
   <si>
     <t>MANGO</t>
   </si>
   <si>
-    <t>MANJAR BLANCO</t>
-  </si>
-  <si>
-    <t>MANTECA</t>
-  </si>
-  <si>
     <t>MANTEQUILLA</t>
   </si>
   <si>
-    <t>MANZANA</t>
-  </si>
-  <si>
-    <t>MARACUYA</t>
-  </si>
-  <si>
-    <t>MARGARINA</t>
-  </si>
-  <si>
-    <t>MELON</t>
-  </si>
-  <si>
-    <t>MENUDENCIAS</t>
-  </si>
-  <si>
-    <t>MOJARRA</t>
+    <t>MAÍZ</t>
   </si>
   <si>
     <t>MORA</t>
   </si>
   <si>
-    <t>MUDO</t>
-  </si>
-  <si>
     <t>NARANJA</t>
   </si>
   <si>
-    <t>NICURO</t>
-  </si>
-  <si>
     <t>PANELA</t>
   </si>
   <si>
     <t>PAPA</t>
   </si>
   <si>
-    <t>PAPA CRIOLLA</t>
-  </si>
-  <si>
-    <t>PAPA R12</t>
-  </si>
-  <si>
     <t>PAPAYA</t>
   </si>
   <si>
-    <t>PECHUGA</t>
+    <t>PASTA</t>
   </si>
   <si>
     <t>PERA</t>
   </si>
   <si>
-    <t>PERNIL</t>
-  </si>
-  <si>
-    <t>PIMENTON</t>
-  </si>
-  <si>
-    <t>PITAHAYA</t>
+    <t>PESCADO</t>
+  </si>
+  <si>
+    <t>PIERNA</t>
+  </si>
+  <si>
+    <t>PIMENTÓN</t>
   </si>
   <si>
     <t>PIÑA</t>
   </si>
   <si>
-    <t>POLLO ENTERO</t>
-  </si>
-  <si>
-    <t>QUESILLO</t>
+    <t>PLÁTANO Gral</t>
+  </si>
+  <si>
+    <t>POLLO/PECHUGA</t>
   </si>
   <si>
     <t>QUESO</t>
   </si>
   <si>
-    <t>QUESO CREMA</t>
-  </si>
-  <si>
-    <t>QUINUA</t>
-  </si>
-  <si>
-    <t>REPOLLO</t>
-  </si>
-  <si>
-    <t>REQUESON</t>
-  </si>
-  <si>
-    <t>RES</t>
+    <t>REMOLACHA</t>
   </si>
   <si>
     <t>SAL</t>
   </si>
   <si>
-    <t>SANDIA</t>
-  </si>
-  <si>
-    <t>SOJA</t>
-  </si>
-  <si>
-    <t>SUERO</t>
+    <t>SOBREBARRIGA</t>
   </si>
   <si>
     <t>TOMATE</t>
   </si>
   <si>
-    <t>TOMATE ARBOL</t>
-  </si>
-  <si>
     <t>TRIGO</t>
   </si>
   <si>
-    <t>TRUCHA</t>
-  </si>
-  <si>
     <t>UVA</t>
   </si>
   <si>
@@ -369,9 +276,6 @@
     <t>ZANAHORIA</t>
   </si>
   <si>
-    <t>ÑAME</t>
-  </si>
-  <si>
     <t>FECHA_DIA</t>
   </si>
   <si>
@@ -396,55 +300,55 @@
     <t>FRUTAS</t>
   </si>
   <si>
+    <t>GRANOS</t>
+  </si>
+  <si>
+    <t>TUBÉRCULOS</t>
+  </si>
+  <si>
+    <t>VERDURAS</t>
+  </si>
+  <si>
+    <t>Suma total</t>
+  </si>
+  <si>
+    <t>PDM PMD SAMPER MENDOZA</t>
+  </si>
+  <si>
+    <t>ENDULZANTES</t>
+  </si>
+  <si>
     <t>OTROS</t>
   </si>
   <si>
-    <t>Suma total</t>
-  </si>
-  <si>
-    <t>PDM PMD SAMPER MENDOZA</t>
-  </si>
-  <si>
-    <t>GRANOS</t>
-  </si>
-  <si>
     <t>PDM PMD 7 DE AGOSTO</t>
   </si>
   <si>
-    <t>CARNES</t>
-  </si>
-  <si>
-    <t>LACTEOS</t>
-  </si>
-  <si>
-    <t>VERDURAS</t>
+    <t>LÁCTEOS</t>
   </si>
   <si>
     <t>PDM PMD LA PERSEVERANCIA</t>
   </si>
   <si>
+    <t>CÁRNICOS</t>
+  </si>
+  <si>
+    <t>GRASAS</t>
+  </si>
+  <si>
     <t>PDM PMD CHAPINERO</t>
   </si>
   <si>
-    <t>GRASAS</t>
+    <t>CEREALES</t>
   </si>
   <si>
     <t>PDM PMD FONTIBÓN</t>
   </si>
   <si>
-    <t>PLATANO</t>
-  </si>
-  <si>
-    <t>TUBERCULOS</t>
-  </si>
-  <si>
     <t>PDM PMD QUIRIGUA</t>
   </si>
   <si>
     <t>PDM PMD 20 DE JULIO</t>
-  </si>
-  <si>
-    <t>POLLO</t>
   </si>
   <si>
     <t>PDM PMD USAQUÉN</t>
@@ -1038,7 +942,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,53 +955,133 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>8500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>8500</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8500</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-6000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9500</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18500</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,30 +1104,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>3200</v>
@@ -1160,19 +1144,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>-1800</v>
+        <v>-3200</v>
       </c>
       <c r="F3" s="2">
         <v>-1</v>
@@ -1180,10 +1164,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>2500</v>
@@ -1200,32 +1184,52 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>-1700</v>
+        <v>-2800</v>
       </c>
       <c r="F5" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9200</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-4200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15900</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,53 +1253,173 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-6000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-3500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
         <v>4200</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>-4200</v>
       </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4200</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13700</v>
+      </c>
+      <c r="D9" s="6">
+        <v>33000</v>
       </c>
     </row>
   </sheetData>
@@ -1320,9 +1444,9 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -1525,553 +1649,457 @@
       <c r="BP1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:100">
+    </row>
+    <row r="2" spans="1:68">
       <c r="A2" s="4">
         <v>45992</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="M2" s="1">
         <v>3800</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="AX2" s="1">
         <v>2500</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="BK2" s="1">
         <v>12000</v>
       </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:68">
       <c r="A3" s="4">
         <v>45993</v>
       </c>
-      <c r="C3" s="1">
+      <c r="AL3" s="1">
+        <v>4500</v>
+      </c>
+      <c r="AW3" s="1">
         <v>9500</v>
       </c>
-      <c r="J3" s="1">
+      <c r="BD3" s="1">
         <v>2800</v>
       </c>
-      <c r="AN3" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:100">
+    </row>
+    <row r="4" spans="1:68">
       <c r="A4" s="4">
         <v>45994</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="H4" s="1">
+        <v>3200</v>
+      </c>
+      <c r="AK4" s="1">
         <v>6000</v>
       </c>
-      <c r="BC4" s="1">
-        <v>3200</v>
-      </c>
-      <c r="BV4" s="1">
+      <c r="AO4" s="1">
         <v>11500</v>
       </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:68">
       <c r="A5" s="4">
         <v>45995</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>15000</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AV5" s="1">
         <v>16000</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AY5" s="1">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:68">
       <c r="A6" s="4">
         <v>45996</v>
       </c>
-      <c r="K6" s="1">
+      <c r="B6" s="1">
         <v>2200</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="Q6" s="1">
+        <v>9000</v>
+      </c>
+      <c r="AS6" s="1">
         <v>5500</v>
       </c>
-      <c r="BL6" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:100">
+    </row>
+    <row r="7" spans="1:68">
       <c r="A7" s="4">
         <v>45997</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="D7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="N7" s="1">
         <v>2500</v>
       </c>
-      <c r="BF7" s="1">
-        <v>4500</v>
-      </c>
-      <c r="BM7" s="1">
+      <c r="U7" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:68">
       <c r="A8" s="4">
         <v>45998</v>
       </c>
-      <c r="BR8" s="1">
+      <c r="V8" s="1">
         <v>1800</v>
       </c>
-      <c r="CA8" s="1">
+      <c r="BO8" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BP8" s="1">
         <v>3000</v>
       </c>
-      <c r="CS8" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:100">
+    </row>
+    <row r="9" spans="1:68">
       <c r="A9" s="4">
         <v>45999</v>
       </c>
-      <c r="X9" s="1">
+      <c r="P9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AM9" s="1">
         <v>14000</v>
       </c>
-      <c r="AC9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="BB9" s="1">
+      <c r="BN9" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:68">
       <c r="A10" s="4">
         <v>46000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="AJ10" s="1">
         <v>8500</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="BC10" s="1">
         <v>4500</v>
       </c>
-      <c r="CT10" s="1">
+      <c r="BI10" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:68">
       <c r="A11" s="4">
         <v>46001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="T11" s="1">
         <v>3500</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="W11" s="1">
         <v>2800</v>
       </c>
-      <c r="BQ11" s="1">
+      <c r="AQ11" s="1">
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:68">
       <c r="A12" s="4">
         <v>46002</v>
       </c>
-      <c r="H12" s="1">
+      <c r="R12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="S12" s="1">
         <v>4000</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="BL12" s="1">
         <v>1500</v>
       </c>
-      <c r="CN12" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:100">
+    </row>
+    <row r="13" spans="1:68">
       <c r="A13" s="4">
         <v>46003</v>
       </c>
-      <c r="P13" s="1">
+      <c r="G13" s="1">
         <v>15000</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AB13" s="1">
         <v>3200</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="AU13" s="1">
         <v>3200</v>
       </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:68">
       <c r="A14" s="4">
         <v>46004</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="Y14" s="1">
         <v>5000</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AH14" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AR14" s="1">
         <v>4800</v>
       </c>
-      <c r="BS14" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:100">
+    </row>
+    <row r="15" spans="1:68">
       <c r="A15" s="4">
         <v>46005</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AN15" s="1">
         <v>2500</v>
       </c>
-      <c r="BJ15" s="1">
+      <c r="AW15" s="1">
         <v>3500</v>
       </c>
-      <c r="CI15" s="1">
+      <c r="BF15" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:68">
       <c r="A16" s="4">
         <v>46006</v>
       </c>
-      <c r="R16" s="1">
+      <c r="F16" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1800</v>
+      </c>
+      <c r="BG16" s="1">
         <v>3000</v>
       </c>
-      <c r="U16" s="1">
-        <v>18000</v>
-      </c>
-      <c r="CF16" s="1">
+      <c r="BM16" s="1">
         <v>9000</v>
       </c>
-      <c r="CU16" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:100">
+    </row>
+    <row r="17" spans="1:68">
       <c r="A17" s="4">
         <v>46007</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="H17" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>5500</v>
+      </c>
+      <c r="BK17" s="1">
         <v>4200</v>
       </c>
-      <c r="BN17" s="1">
-        <v>7000</v>
-      </c>
-      <c r="CJ17" s="1">
-        <v>1200</v>
-      </c>
-      <c r="CM17" s="1">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:100">
+    </row>
+    <row r="18" spans="1:68">
       <c r="A18" s="4">
         <v>46008</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AG18" s="1">
         <v>3800</v>
       </c>
-      <c r="BO18" s="1">
+      <c r="AI18" s="1">
         <v>1200</v>
       </c>
-      <c r="BY18" s="1">
+      <c r="AV18" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:68">
       <c r="A19" s="4">
         <v>46009</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="N19" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AP19" s="1">
         <v>2000</v>
       </c>
-      <c r="BE19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="CQ19" s="1">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:100">
+    </row>
+    <row r="20" spans="1:68">
       <c r="A20" s="4">
         <v>46010</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="Z20" s="1">
         <v>2500</v>
       </c>
-      <c r="CH20" s="1">
+      <c r="BO20" s="1">
+        <v>2800</v>
+      </c>
+      <c r="BP20" s="1">
         <v>8000</v>
       </c>
-      <c r="CV20" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:100">
+    </row>
+    <row r="21" spans="1:68">
       <c r="A21" s="4">
         <v>46011</v>
       </c>
-      <c r="M21" s="1">
+      <c r="T21" s="1">
         <v>3500</v>
       </c>
-      <c r="CB21" s="1">
+      <c r="AK21" s="1">
         <v>9500</v>
       </c>
-      <c r="CK21" s="1">
+      <c r="AT21" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:68">
       <c r="A22" s="4">
         <v>46012</v>
       </c>
-      <c r="B22" s="1">
+      <c r="AZ22" s="1">
         <v>15500</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="BI22" s="1">
         <v>3500</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="BJ22" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:68">
       <c r="A23" s="4">
         <v>46013</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="B23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3800</v>
+      </c>
+      <c r="AC23" s="1">
         <v>12000</v>
       </c>
-      <c r="BH23" s="1">
-        <v>3800</v>
-      </c>
-      <c r="BK23" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:100">
+    </row>
+    <row r="24" spans="1:68">
       <c r="A24" s="4">
         <v>46014</v>
       </c>
       <c r="I24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>6000</v>
       </c>
-      <c r="N24" s="1">
-        <v>2800</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:100">
+    </row>
+    <row r="25" spans="1:68">
       <c r="A25" s="4">
         <v>46015</v>
       </c>
-      <c r="E25" s="1">
+      <c r="AW25" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>4200</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>2200</v>
+      </c>
+      <c r="BG25" s="1">
         <v>28000</v>
       </c>
-      <c r="AD25" s="1">
-        <v>2200</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>2800</v>
-      </c>
-      <c r="BP25" s="1">
+      <c r="BH25" s="1">
         <v>7000</v>
       </c>
-      <c r="CL25" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:100">
+    </row>
+    <row r="26" spans="1:68">
       <c r="A26" s="4">
         <v>46016</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AD26" s="1">
         <v>2000</v>
       </c>
-      <c r="BW26" s="1">
+      <c r="BA26" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:68">
       <c r="A27" s="4">
         <v>46017</v>
       </c>
-      <c r="BZ27" s="1">
+      <c r="R27" s="1">
+        <v>11000</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>3200</v>
+      </c>
+      <c r="AB27" s="1">
         <v>8500</v>
       </c>
-      <c r="CC27" s="1">
-        <v>11000</v>
-      </c>
-      <c r="CP27" s="1">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:100">
+    </row>
+    <row r="28" spans="1:68">
       <c r="A28" s="4">
         <v>46018</v>
       </c>
-      <c r="O28" s="1">
+      <c r="C28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H28" s="1">
         <v>13500</v>
       </c>
-      <c r="V28" s="1">
+      <c r="AH28" s="1">
         <v>13000</v>
       </c>
-      <c r="AG28" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:100">
+    </row>
+    <row r="29" spans="1:68">
       <c r="A29" s="4">
         <v>46019</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="E29" s="1">
         <v>3000</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="G29" s="1">
+        <v>8500</v>
+      </c>
+      <c r="S29" s="1">
         <v>7500</v>
       </c>
-      <c r="BX29" s="1">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:100">
+    </row>
+    <row r="30" spans="1:68">
       <c r="A30" s="4">
         <v>46020</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="J30" s="1">
+        <v>3200</v>
+      </c>
+      <c r="O30" s="1">
         <v>6500</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="AF30" s="1">
         <v>15000</v>
       </c>
-      <c r="CO30" s="1">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:100">
+    </row>
+    <row r="31" spans="1:68">
       <c r="A31" s="4">
         <v>46021</v>
       </c>
-      <c r="F31" s="1">
+      <c r="N31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="U31" s="1">
         <v>15000</v>
       </c>
-      <c r="AB31" s="1">
-        <v>5000</v>
-      </c>
-      <c r="CG31" s="1">
+      <c r="BN31" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:68">
       <c r="A32" s="4">
         <v>46022</v>
       </c>
-      <c r="D32" s="1">
+      <c r="M32" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>1700</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>7500</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>25000</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>6000</v>
+      </c>
+      <c r="BO32" s="1">
         <v>11000</v>
-      </c>
-      <c r="T32" s="1">
-        <v>25000</v>
-      </c>
-      <c r="BA32" s="1">
-        <v>2800</v>
-      </c>
-      <c r="BT32" s="1">
-        <v>1700</v>
-      </c>
-      <c r="CE32" s="1">
-        <v>7500</v>
-      </c>
-      <c r="CR32" s="1">
-        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -2080,6 +2108,860 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-8500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17500</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-16000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-5000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-3500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-14000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-9500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-13000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2800</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-12000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <v>57800</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-16000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>23000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2750</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2750</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-3200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13650</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2094,39 +2976,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>-2500</v>
+        <v>-7500</v>
       </c>
       <c r="F2" s="2">
         <v>-1</v>
@@ -2134,39 +3016,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E3" s="1">
-        <v>-3000</v>
+        <v>3200</v>
       </c>
       <c r="F3" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2174,39 +3056,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="1">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6500</v>
+        <v>-6000</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>4500</v>
+        <v>28000</v>
       </c>
       <c r="E6" s="1">
-        <v>4500</v>
+        <v>28000</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2214,19 +3096,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1200</v>
+        <v>11000</v>
       </c>
       <c r="E7" s="1">
-        <v>1200</v>
+        <v>11000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2234,747 +3116,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C8" s="6">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="D8" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1200</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3800</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3800</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-16000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="6">
-        <v>20700</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-13000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-9500</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-18000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-12000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-2800</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-3000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="6">
-        <v>58300</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2200</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2500</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1800</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1800</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4300</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15500</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-3200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2800</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-6000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-4500</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10500</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
+        <v>47200</v>
       </c>
     </row>
   </sheetData>
